--- a/Zaoch/28/лаб2.xlsx
+++ b/Zaoch/28/лаб2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexe\Desktop\PAS\Zaoch\28\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikit\Desktop\PAS\Zaoch\28\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F2990E-257A-4187-85BD-121DDF2EED7D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="504" windowWidth="28800" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="504" windowWidth="28800" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет о результатах 2" sheetId="3" r:id="rId1"/>
@@ -62,12 +63,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0" shapeId="0">
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -691,8 +692,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -776,6 +777,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
@@ -1024,7 +1032,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -1071,11 +1078,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1093,11 +1096,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1106,16 +1107,9 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
@@ -1144,6 +1138,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1237,6 +1245,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1272,6 +1297,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1447,7 +1489,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G137"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0"/>
@@ -1464,50 +1506,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
+      <c r="A6" s="18"/>
       <c r="B6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
+      <c r="A7" s="18"/>
       <c r="B7" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
+      <c r="A8" s="18"/>
       <c r="B8" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="18" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1527,30 +1569,30 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="21" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="19">
         <v>180</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="19">
         <v>180</v>
       </c>
     </row>
@@ -1560,1434 +1602,1434 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="21">
-        <v>0</v>
-      </c>
-      <c r="E21" s="21">
-        <v>0</v>
-      </c>
-      <c r="F21" s="21" t="s">
+      <c r="D21" s="20">
+        <v>0</v>
+      </c>
+      <c r="E21" s="20">
+        <v>0</v>
+      </c>
+      <c r="F21" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21">
-        <v>1</v>
-      </c>
-      <c r="E22" s="21">
-        <v>0</v>
-      </c>
-      <c r="F22" s="21" t="s">
+      <c r="C22" s="20"/>
+      <c r="D22" s="20">
+        <v>1</v>
+      </c>
+      <c r="E22" s="20">
+        <v>0</v>
+      </c>
+      <c r="F22" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21">
-        <v>0</v>
-      </c>
-      <c r="E23" s="21">
-        <v>0</v>
-      </c>
-      <c r="F23" s="21" t="s">
+      <c r="C23" s="20"/>
+      <c r="D23" s="20">
+        <v>0</v>
+      </c>
+      <c r="E23" s="20">
+        <v>0</v>
+      </c>
+      <c r="F23" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21">
-        <v>0</v>
-      </c>
-      <c r="E24" s="21">
-        <v>0</v>
-      </c>
-      <c r="F24" s="21" t="s">
+      <c r="C24" s="20"/>
+      <c r="D24" s="20">
+        <v>0</v>
+      </c>
+      <c r="E24" s="20">
+        <v>0</v>
+      </c>
+      <c r="F24" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21">
-        <v>0</v>
-      </c>
-      <c r="E25" s="21">
-        <v>0</v>
-      </c>
-      <c r="F25" s="21" t="s">
+      <c r="C25" s="20"/>
+      <c r="D25" s="20">
+        <v>0</v>
+      </c>
+      <c r="E25" s="20">
+        <v>0</v>
+      </c>
+      <c r="F25" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21">
-        <v>0</v>
-      </c>
-      <c r="E26" s="21">
-        <v>0</v>
-      </c>
-      <c r="F26" s="21" t="s">
+      <c r="C26" s="20"/>
+      <c r="D26" s="20">
+        <v>0</v>
+      </c>
+      <c r="E26" s="20">
+        <v>0</v>
+      </c>
+      <c r="F26" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21">
-        <v>0</v>
-      </c>
-      <c r="E27" s="21">
-        <v>0</v>
-      </c>
-      <c r="F27" s="21" t="s">
+      <c r="C27" s="20"/>
+      <c r="D27" s="20">
+        <v>0</v>
+      </c>
+      <c r="E27" s="20">
+        <v>0</v>
+      </c>
+      <c r="F27" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21">
-        <v>1</v>
-      </c>
-      <c r="E28" s="21">
-        <v>0</v>
-      </c>
-      <c r="F28" s="21" t="s">
+      <c r="C28" s="20"/>
+      <c r="D28" s="20">
+        <v>1</v>
+      </c>
+      <c r="E28" s="20">
+        <v>0</v>
+      </c>
+      <c r="F28" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21">
-        <v>1</v>
-      </c>
-      <c r="E29" s="21">
-        <v>1</v>
-      </c>
-      <c r="F29" s="21" t="s">
+      <c r="C29" s="20"/>
+      <c r="D29" s="20">
+        <v>1</v>
+      </c>
+      <c r="E29" s="20">
+        <v>1</v>
+      </c>
+      <c r="F29" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21">
-        <v>0</v>
-      </c>
-      <c r="E30" s="21">
-        <v>0</v>
-      </c>
-      <c r="F30" s="21" t="s">
+      <c r="C30" s="20"/>
+      <c r="D30" s="20">
+        <v>0</v>
+      </c>
+      <c r="E30" s="20">
+        <v>0</v>
+      </c>
+      <c r="F30" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21">
-        <v>0</v>
-      </c>
-      <c r="E31" s="21">
-        <v>1</v>
-      </c>
-      <c r="F31" s="21" t="s">
+      <c r="C31" s="20"/>
+      <c r="D31" s="20">
+        <v>0</v>
+      </c>
+      <c r="E31" s="20">
+        <v>1</v>
+      </c>
+      <c r="F31" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="21">
-        <v>0</v>
-      </c>
-      <c r="E32" s="21">
-        <v>0</v>
-      </c>
-      <c r="F32" s="21" t="s">
+      <c r="D32" s="20">
+        <v>0</v>
+      </c>
+      <c r="E32" s="20">
+        <v>0</v>
+      </c>
+      <c r="F32" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21">
-        <v>0</v>
-      </c>
-      <c r="E33" s="21">
-        <v>0</v>
-      </c>
-      <c r="F33" s="21" t="s">
+      <c r="C33" s="20"/>
+      <c r="D33" s="20">
+        <v>0</v>
+      </c>
+      <c r="E33" s="20">
+        <v>0</v>
+      </c>
+      <c r="F33" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="21">
-        <v>0</v>
-      </c>
-      <c r="E34" s="21">
-        <v>0</v>
-      </c>
-      <c r="F34" s="21" t="s">
+      <c r="D34" s="20">
+        <v>0</v>
+      </c>
+      <c r="E34" s="20">
+        <v>0</v>
+      </c>
+      <c r="F34" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21">
-        <v>0</v>
-      </c>
-      <c r="E35" s="21">
-        <v>0</v>
-      </c>
-      <c r="F35" s="21" t="s">
+      <c r="C35" s="20"/>
+      <c r="D35" s="20">
+        <v>0</v>
+      </c>
+      <c r="E35" s="20">
+        <v>0</v>
+      </c>
+      <c r="F35" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21">
-        <v>0</v>
-      </c>
-      <c r="E36" s="21">
-        <v>0</v>
-      </c>
-      <c r="F36" s="21" t="s">
+      <c r="C36" s="20"/>
+      <c r="D36" s="20">
+        <v>0</v>
+      </c>
+      <c r="E36" s="20">
+        <v>0</v>
+      </c>
+      <c r="F36" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21">
-        <v>0</v>
-      </c>
-      <c r="E37" s="21">
-        <v>0</v>
-      </c>
-      <c r="F37" s="21" t="s">
+      <c r="C37" s="20"/>
+      <c r="D37" s="20">
+        <v>0</v>
+      </c>
+      <c r="E37" s="20">
+        <v>0</v>
+      </c>
+      <c r="F37" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21">
-        <v>0</v>
-      </c>
-      <c r="E38" s="21">
-        <v>0</v>
-      </c>
-      <c r="F38" s="21" t="s">
+      <c r="C38" s="20"/>
+      <c r="D38" s="20">
+        <v>0</v>
+      </c>
+      <c r="E38" s="20">
+        <v>0</v>
+      </c>
+      <c r="F38" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21">
-        <v>0</v>
-      </c>
-      <c r="E39" s="21">
-        <v>0</v>
-      </c>
-      <c r="F39" s="21" t="s">
+      <c r="C39" s="20"/>
+      <c r="D39" s="20">
+        <v>0</v>
+      </c>
+      <c r="E39" s="20">
+        <v>0</v>
+      </c>
+      <c r="F39" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21">
-        <v>0</v>
-      </c>
-      <c r="E40" s="21">
-        <v>0</v>
-      </c>
-      <c r="F40" s="21" t="s">
+      <c r="C40" s="20"/>
+      <c r="D40" s="20">
+        <v>0</v>
+      </c>
+      <c r="E40" s="20">
+        <v>0</v>
+      </c>
+      <c r="F40" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21">
-        <v>0</v>
-      </c>
-      <c r="E41" s="21">
-        <v>0</v>
-      </c>
-      <c r="F41" s="21" t="s">
+      <c r="C41" s="20"/>
+      <c r="D41" s="20">
+        <v>0</v>
+      </c>
+      <c r="E41" s="20">
+        <v>0</v>
+      </c>
+      <c r="F41" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21">
-        <v>0</v>
-      </c>
-      <c r="E42" s="21">
-        <v>0</v>
-      </c>
-      <c r="F42" s="21" t="s">
+      <c r="C42" s="20"/>
+      <c r="D42" s="20">
+        <v>0</v>
+      </c>
+      <c r="E42" s="20">
+        <v>0</v>
+      </c>
+      <c r="F42" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21">
-        <v>0</v>
-      </c>
-      <c r="E43" s="21">
-        <v>0</v>
-      </c>
-      <c r="F43" s="21" t="s">
+      <c r="C43" s="20"/>
+      <c r="D43" s="20">
+        <v>0</v>
+      </c>
+      <c r="E43" s="20">
+        <v>0</v>
+      </c>
+      <c r="F43" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21">
-        <v>0</v>
-      </c>
-      <c r="E44" s="21">
-        <v>0</v>
-      </c>
-      <c r="F44" s="21" t="s">
+      <c r="C44" s="20"/>
+      <c r="D44" s="20">
+        <v>0</v>
+      </c>
+      <c r="E44" s="20">
+        <v>0</v>
+      </c>
+      <c r="F44" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="21">
-        <v>0</v>
-      </c>
-      <c r="E45" s="21">
-        <v>0</v>
-      </c>
-      <c r="F45" s="21" t="s">
+      <c r="D45" s="20">
+        <v>0</v>
+      </c>
+      <c r="E45" s="20">
+        <v>0</v>
+      </c>
+      <c r="F45" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="21" t="s">
+      <c r="B46" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21">
-        <v>1</v>
-      </c>
-      <c r="E46" s="21">
-        <v>1</v>
-      </c>
-      <c r="F46" s="21" t="s">
+      <c r="C46" s="20"/>
+      <c r="D46" s="20">
+        <v>1</v>
+      </c>
+      <c r="E46" s="20">
+        <v>1</v>
+      </c>
+      <c r="F46" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C47" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="21">
-        <v>0</v>
-      </c>
-      <c r="E47" s="21">
-        <v>0</v>
-      </c>
-      <c r="F47" s="21" t="s">
+      <c r="D47" s="20">
+        <v>0</v>
+      </c>
+      <c r="E47" s="20">
+        <v>0</v>
+      </c>
+      <c r="F47" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21">
-        <v>0</v>
-      </c>
-      <c r="E48" s="21">
-        <v>0</v>
-      </c>
-      <c r="F48" s="21" t="s">
+      <c r="C48" s="20"/>
+      <c r="D48" s="20">
+        <v>0</v>
+      </c>
+      <c r="E48" s="20">
+        <v>0</v>
+      </c>
+      <c r="F48" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21">
-        <v>0</v>
-      </c>
-      <c r="E49" s="21">
-        <v>0</v>
-      </c>
-      <c r="F49" s="21" t="s">
+      <c r="C49" s="20"/>
+      <c r="D49" s="20">
+        <v>0</v>
+      </c>
+      <c r="E49" s="20">
+        <v>0</v>
+      </c>
+      <c r="F49" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21">
-        <v>0</v>
-      </c>
-      <c r="E50" s="21">
-        <v>0</v>
-      </c>
-      <c r="F50" s="21" t="s">
+      <c r="C50" s="20"/>
+      <c r="D50" s="20">
+        <v>0</v>
+      </c>
+      <c r="E50" s="20">
+        <v>0</v>
+      </c>
+      <c r="F50" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B51" s="21" t="s">
+      <c r="B51" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21">
-        <v>0</v>
-      </c>
-      <c r="E51" s="21">
-        <v>0</v>
-      </c>
-      <c r="F51" s="21" t="s">
+      <c r="C51" s="20"/>
+      <c r="D51" s="20">
+        <v>0</v>
+      </c>
+      <c r="E51" s="20">
+        <v>0</v>
+      </c>
+      <c r="F51" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21">
-        <v>0</v>
-      </c>
-      <c r="E52" s="21">
-        <v>0</v>
-      </c>
-      <c r="F52" s="21" t="s">
+      <c r="C52" s="20"/>
+      <c r="D52" s="20">
+        <v>0</v>
+      </c>
+      <c r="E52" s="20">
+        <v>0</v>
+      </c>
+      <c r="F52" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21">
-        <v>1</v>
-      </c>
-      <c r="E53" s="21">
-        <v>1</v>
-      </c>
-      <c r="F53" s="21" t="s">
+      <c r="C53" s="20"/>
+      <c r="D53" s="20">
+        <v>1</v>
+      </c>
+      <c r="E53" s="20">
+        <v>1</v>
+      </c>
+      <c r="F53" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B54" s="21" t="s">
+      <c r="B54" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21">
-        <v>0</v>
-      </c>
-      <c r="E54" s="21">
-        <v>0</v>
-      </c>
-      <c r="F54" s="21" t="s">
+      <c r="C54" s="20"/>
+      <c r="D54" s="20">
+        <v>0</v>
+      </c>
+      <c r="E54" s="20">
+        <v>0</v>
+      </c>
+      <c r="F54" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B55" s="21" t="s">
+      <c r="B55" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21">
-        <v>0</v>
-      </c>
-      <c r="E55" s="21">
-        <v>0</v>
-      </c>
-      <c r="F55" s="21" t="s">
+      <c r="C55" s="20"/>
+      <c r="D55" s="20">
+        <v>0</v>
+      </c>
+      <c r="E55" s="20">
+        <v>0</v>
+      </c>
+      <c r="F55" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B56" s="21" t="s">
+      <c r="B56" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21">
-        <v>0</v>
-      </c>
-      <c r="E56" s="21">
-        <v>0</v>
-      </c>
-      <c r="F56" s="21" t="s">
+      <c r="C56" s="20"/>
+      <c r="D56" s="20">
+        <v>0</v>
+      </c>
+      <c r="E56" s="20">
+        <v>0</v>
+      </c>
+      <c r="F56" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21">
-        <v>0</v>
-      </c>
-      <c r="E57" s="21">
-        <v>0</v>
-      </c>
-      <c r="F57" s="21" t="s">
+      <c r="C57" s="20"/>
+      <c r="D57" s="20">
+        <v>0</v>
+      </c>
+      <c r="E57" s="20">
+        <v>0</v>
+      </c>
+      <c r="F57" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B58" s="21" t="s">
+      <c r="B58" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C58" s="21" t="s">
+      <c r="C58" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="21">
-        <v>0</v>
-      </c>
-      <c r="E58" s="21">
-        <v>0</v>
-      </c>
-      <c r="F58" s="21" t="s">
+      <c r="D58" s="20">
+        <v>0</v>
+      </c>
+      <c r="E58" s="20">
+        <v>0</v>
+      </c>
+      <c r="F58" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B59" s="21" t="s">
+      <c r="B59" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21">
-        <v>0</v>
-      </c>
-      <c r="E59" s="21">
-        <v>0</v>
-      </c>
-      <c r="F59" s="21" t="s">
+      <c r="C59" s="20"/>
+      <c r="D59" s="20">
+        <v>0</v>
+      </c>
+      <c r="E59" s="20">
+        <v>0</v>
+      </c>
+      <c r="F59" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B60" s="21" t="s">
+      <c r="B60" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C60" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D60" s="21">
-        <v>0</v>
-      </c>
-      <c r="E60" s="21">
-        <v>0</v>
-      </c>
-      <c r="F60" s="21" t="s">
+      <c r="D60" s="20">
+        <v>0</v>
+      </c>
+      <c r="E60" s="20">
+        <v>0</v>
+      </c>
+      <c r="F60" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B61" s="21" t="s">
+      <c r="B61" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21">
-        <v>0</v>
-      </c>
-      <c r="E61" s="21">
-        <v>0</v>
-      </c>
-      <c r="F61" s="21" t="s">
+      <c r="C61" s="20"/>
+      <c r="D61" s="20">
+        <v>0</v>
+      </c>
+      <c r="E61" s="20">
+        <v>0</v>
+      </c>
+      <c r="F61" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B62" s="21" t="s">
+      <c r="B62" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21">
-        <v>0</v>
-      </c>
-      <c r="E62" s="21">
-        <v>0</v>
-      </c>
-      <c r="F62" s="21" t="s">
+      <c r="C62" s="20"/>
+      <c r="D62" s="20">
+        <v>0</v>
+      </c>
+      <c r="E62" s="20">
+        <v>0</v>
+      </c>
+      <c r="F62" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B63" s="21" t="s">
+      <c r="B63" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21">
-        <v>0</v>
-      </c>
-      <c r="E63" s="21">
-        <v>0</v>
-      </c>
-      <c r="F63" s="21" t="s">
+      <c r="C63" s="20"/>
+      <c r="D63" s="20">
+        <v>0</v>
+      </c>
+      <c r="E63" s="20">
+        <v>0</v>
+      </c>
+      <c r="F63" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B64" s="21" t="s">
+      <c r="B64" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21">
-        <v>0</v>
-      </c>
-      <c r="E64" s="21">
-        <v>0</v>
-      </c>
-      <c r="F64" s="21" t="s">
+      <c r="C64" s="20"/>
+      <c r="D64" s="20">
+        <v>0</v>
+      </c>
+      <c r="E64" s="20">
+        <v>0</v>
+      </c>
+      <c r="F64" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B65" s="21" t="s">
+      <c r="B65" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21">
-        <v>0</v>
-      </c>
-      <c r="E65" s="21">
-        <v>0</v>
-      </c>
-      <c r="F65" s="21" t="s">
+      <c r="C65" s="20"/>
+      <c r="D65" s="20">
+        <v>0</v>
+      </c>
+      <c r="E65" s="20">
+        <v>0</v>
+      </c>
+      <c r="F65" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B66" s="21" t="s">
+      <c r="B66" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21">
-        <v>0</v>
-      </c>
-      <c r="E66" s="21">
-        <v>0</v>
-      </c>
-      <c r="F66" s="21" t="s">
+      <c r="C66" s="20"/>
+      <c r="D66" s="20">
+        <v>0</v>
+      </c>
+      <c r="E66" s="20">
+        <v>0</v>
+      </c>
+      <c r="F66" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B67" s="21" t="s">
+      <c r="B67" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21">
-        <v>0</v>
-      </c>
-      <c r="E67" s="21">
-        <v>0</v>
-      </c>
-      <c r="F67" s="21" t="s">
+      <c r="C67" s="20"/>
+      <c r="D67" s="20">
+        <v>0</v>
+      </c>
+      <c r="E67" s="20">
+        <v>0</v>
+      </c>
+      <c r="F67" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B68" s="21" t="s">
+      <c r="B68" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="C68" s="21"/>
-      <c r="D68" s="21">
-        <v>0</v>
-      </c>
-      <c r="E68" s="21">
-        <v>0</v>
-      </c>
-      <c r="F68" s="21" t="s">
+      <c r="C68" s="20"/>
+      <c r="D68" s="20">
+        <v>0</v>
+      </c>
+      <c r="E68" s="20">
+        <v>0</v>
+      </c>
+      <c r="F68" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B69" s="21" t="s">
+      <c r="B69" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21">
-        <v>0</v>
-      </c>
-      <c r="E69" s="21">
-        <v>0</v>
-      </c>
-      <c r="F69" s="21" t="s">
+      <c r="C69" s="20"/>
+      <c r="D69" s="20">
+        <v>0</v>
+      </c>
+      <c r="E69" s="20">
+        <v>0</v>
+      </c>
+      <c r="F69" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B70" s="21" t="s">
+      <c r="B70" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21">
-        <v>0</v>
-      </c>
-      <c r="E70" s="21">
-        <v>0</v>
-      </c>
-      <c r="F70" s="21" t="s">
+      <c r="C70" s="20"/>
+      <c r="D70" s="20">
+        <v>0</v>
+      </c>
+      <c r="E70" s="20">
+        <v>0</v>
+      </c>
+      <c r="F70" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B71" s="21" t="s">
+      <c r="B71" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="C71" s="21" t="s">
+      <c r="C71" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D71" s="21">
-        <v>1</v>
-      </c>
-      <c r="E71" s="21">
-        <v>1</v>
-      </c>
-      <c r="F71" s="21" t="s">
+      <c r="D71" s="20">
+        <v>1</v>
+      </c>
+      <c r="E71" s="20">
+        <v>1</v>
+      </c>
+      <c r="F71" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B72" s="21" t="s">
+      <c r="B72" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21">
-        <v>0</v>
-      </c>
-      <c r="E72" s="21">
-        <v>0</v>
-      </c>
-      <c r="F72" s="21" t="s">
+      <c r="C72" s="20"/>
+      <c r="D72" s="20">
+        <v>0</v>
+      </c>
+      <c r="E72" s="20">
+        <v>0</v>
+      </c>
+      <c r="F72" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B73" s="21" t="s">
+      <c r="B73" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="C73" s="21" t="s">
+      <c r="C73" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D73" s="21">
-        <v>0</v>
-      </c>
-      <c r="E73" s="21">
-        <v>0</v>
-      </c>
-      <c r="F73" s="21" t="s">
+      <c r="D73" s="20">
+        <v>0</v>
+      </c>
+      <c r="E73" s="20">
+        <v>0</v>
+      </c>
+      <c r="F73" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B74" s="21" t="s">
+      <c r="B74" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="C74" s="21"/>
-      <c r="D74" s="21">
-        <v>0</v>
-      </c>
-      <c r="E74" s="21">
-        <v>0</v>
-      </c>
-      <c r="F74" s="21" t="s">
+      <c r="C74" s="20"/>
+      <c r="D74" s="20">
+        <v>0</v>
+      </c>
+      <c r="E74" s="20">
+        <v>0</v>
+      </c>
+      <c r="F74" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B75" s="21" t="s">
+      <c r="B75" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C75" s="21"/>
-      <c r="D75" s="21">
-        <v>0</v>
-      </c>
-      <c r="E75" s="21">
-        <v>0</v>
-      </c>
-      <c r="F75" s="21" t="s">
+      <c r="C75" s="20"/>
+      <c r="D75" s="20">
+        <v>0</v>
+      </c>
+      <c r="E75" s="20">
+        <v>0</v>
+      </c>
+      <c r="F75" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B76" s="21" t="s">
+      <c r="B76" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="C76" s="21"/>
-      <c r="D76" s="21">
-        <v>0</v>
-      </c>
-      <c r="E76" s="21">
-        <v>0</v>
-      </c>
-      <c r="F76" s="21" t="s">
+      <c r="C76" s="20"/>
+      <c r="D76" s="20">
+        <v>0</v>
+      </c>
+      <c r="E76" s="20">
+        <v>0</v>
+      </c>
+      <c r="F76" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B77" s="21" t="s">
+      <c r="B77" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C77" s="21"/>
-      <c r="D77" s="21">
-        <v>0</v>
-      </c>
-      <c r="E77" s="21">
-        <v>0</v>
-      </c>
-      <c r="F77" s="21" t="s">
+      <c r="C77" s="20"/>
+      <c r="D77" s="20">
+        <v>0</v>
+      </c>
+      <c r="E77" s="20">
+        <v>0</v>
+      </c>
+      <c r="F77" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B78" s="21" t="s">
+      <c r="B78" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="C78" s="21"/>
-      <c r="D78" s="21">
-        <v>1</v>
-      </c>
-      <c r="E78" s="21">
-        <v>1</v>
-      </c>
-      <c r="F78" s="21" t="s">
+      <c r="C78" s="20"/>
+      <c r="D78" s="20">
+        <v>1</v>
+      </c>
+      <c r="E78" s="20">
+        <v>1</v>
+      </c>
+      <c r="F78" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B79" s="21" t="s">
+      <c r="B79" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="C79" s="21"/>
-      <c r="D79" s="21">
-        <v>0</v>
-      </c>
-      <c r="E79" s="21">
-        <v>0</v>
-      </c>
-      <c r="F79" s="21" t="s">
+      <c r="C79" s="20"/>
+      <c r="D79" s="20">
+        <v>0</v>
+      </c>
+      <c r="E79" s="20">
+        <v>0</v>
+      </c>
+      <c r="F79" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B80" s="21" t="s">
+      <c r="B80" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C80" s="21"/>
-      <c r="D80" s="21">
-        <v>0</v>
-      </c>
-      <c r="E80" s="21">
-        <v>0</v>
-      </c>
-      <c r="F80" s="21" t="s">
+      <c r="C80" s="20"/>
+      <c r="D80" s="20">
+        <v>0</v>
+      </c>
+      <c r="E80" s="20">
+        <v>0</v>
+      </c>
+      <c r="F80" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B81" s="21" t="s">
+      <c r="B81" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="C81" s="21"/>
-      <c r="D81" s="21">
-        <v>0</v>
-      </c>
-      <c r="E81" s="21">
-        <v>0</v>
-      </c>
-      <c r="F81" s="21" t="s">
+      <c r="C81" s="20"/>
+      <c r="D81" s="20">
+        <v>0</v>
+      </c>
+      <c r="E81" s="20">
+        <v>0</v>
+      </c>
+      <c r="F81" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B82" s="21" t="s">
+      <c r="B82" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="C82" s="21"/>
-      <c r="D82" s="21">
-        <v>0</v>
-      </c>
-      <c r="E82" s="21">
-        <v>0</v>
-      </c>
-      <c r="F82" s="21" t="s">
+      <c r="C82" s="20"/>
+      <c r="D82" s="20">
+        <v>0</v>
+      </c>
+      <c r="E82" s="20">
+        <v>0</v>
+      </c>
+      <c r="F82" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B83" s="21" t="s">
+      <c r="B83" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="C83" s="21"/>
-      <c r="D83" s="21">
-        <v>0</v>
-      </c>
-      <c r="E83" s="21">
-        <v>0</v>
-      </c>
-      <c r="F83" s="21" t="s">
+      <c r="C83" s="20"/>
+      <c r="D83" s="20">
+        <v>0</v>
+      </c>
+      <c r="E83" s="20">
+        <v>0</v>
+      </c>
+      <c r="F83" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B84" s="21" t="s">
+      <c r="B84" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="C84" s="21" t="s">
+      <c r="C84" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D84" s="21">
-        <v>0</v>
-      </c>
-      <c r="E84" s="21">
-        <v>0</v>
-      </c>
-      <c r="F84" s="21" t="s">
+      <c r="D84" s="20">
+        <v>0</v>
+      </c>
+      <c r="E84" s="20">
+        <v>0</v>
+      </c>
+      <c r="F84" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B85" s="21" t="s">
+      <c r="B85" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="C85" s="21"/>
-      <c r="D85" s="21">
-        <v>0</v>
-      </c>
-      <c r="E85" s="21">
-        <v>0</v>
-      </c>
-      <c r="F85" s="21" t="s">
+      <c r="C85" s="20"/>
+      <c r="D85" s="20">
+        <v>0</v>
+      </c>
+      <c r="E85" s="20">
+        <v>0</v>
+      </c>
+      <c r="F85" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B86" s="21" t="s">
+      <c r="B86" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="C86" s="21" t="s">
+      <c r="C86" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D86" s="21">
-        <v>1</v>
-      </c>
-      <c r="E86" s="21">
-        <v>0</v>
-      </c>
-      <c r="F86" s="21" t="s">
+      <c r="D86" s="20">
+        <v>1</v>
+      </c>
+      <c r="E86" s="20">
+        <v>0</v>
+      </c>
+      <c r="F86" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B87" s="21" t="s">
+      <c r="B87" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="C87" s="21"/>
-      <c r="D87" s="21">
-        <v>0</v>
-      </c>
-      <c r="E87" s="21">
-        <v>1</v>
-      </c>
-      <c r="F87" s="21" t="s">
+      <c r="C87" s="20"/>
+      <c r="D87" s="20">
+        <v>0</v>
+      </c>
+      <c r="E87" s="20">
+        <v>1</v>
+      </c>
+      <c r="F87" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B88" s="21" t="s">
+      <c r="B88" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="C88" s="21"/>
-      <c r="D88" s="21">
-        <v>0</v>
-      </c>
-      <c r="E88" s="21">
-        <v>0</v>
-      </c>
-      <c r="F88" s="21" t="s">
+      <c r="C88" s="20"/>
+      <c r="D88" s="20">
+        <v>0</v>
+      </c>
+      <c r="E88" s="20">
+        <v>0</v>
+      </c>
+      <c r="F88" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B89" s="21" t="s">
+      <c r="B89" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="C89" s="21"/>
-      <c r="D89" s="21">
-        <v>0</v>
-      </c>
-      <c r="E89" s="21">
-        <v>0</v>
-      </c>
-      <c r="F89" s="21" t="s">
+      <c r="C89" s="20"/>
+      <c r="D89" s="20">
+        <v>0</v>
+      </c>
+      <c r="E89" s="20">
+        <v>0</v>
+      </c>
+      <c r="F89" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B90" s="21" t="s">
+      <c r="B90" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="C90" s="21"/>
-      <c r="D90" s="21">
-        <v>0</v>
-      </c>
-      <c r="E90" s="21">
-        <v>0</v>
-      </c>
-      <c r="F90" s="21" t="s">
+      <c r="C90" s="20"/>
+      <c r="D90" s="20">
+        <v>0</v>
+      </c>
+      <c r="E90" s="20">
+        <v>0</v>
+      </c>
+      <c r="F90" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B91" s="21" t="s">
+      <c r="B91" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="C91" s="21"/>
-      <c r="D91" s="21">
-        <v>0</v>
-      </c>
-      <c r="E91" s="21">
-        <v>0</v>
-      </c>
-      <c r="F91" s="21" t="s">
+      <c r="C91" s="20"/>
+      <c r="D91" s="20">
+        <v>0</v>
+      </c>
+      <c r="E91" s="20">
+        <v>0</v>
+      </c>
+      <c r="F91" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B92" s="21" t="s">
+      <c r="B92" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="C92" s="21"/>
-      <c r="D92" s="21">
-        <v>0</v>
-      </c>
-      <c r="E92" s="21">
-        <v>0</v>
-      </c>
-      <c r="F92" s="21" t="s">
+      <c r="C92" s="20"/>
+      <c r="D92" s="20">
+        <v>0</v>
+      </c>
+      <c r="E92" s="20">
+        <v>0</v>
+      </c>
+      <c r="F92" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B93" s="21" t="s">
+      <c r="B93" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="C93" s="21"/>
-      <c r="D93" s="21">
-        <v>0</v>
-      </c>
-      <c r="E93" s="21">
-        <v>0</v>
-      </c>
-      <c r="F93" s="21" t="s">
+      <c r="C93" s="20"/>
+      <c r="D93" s="20">
+        <v>0</v>
+      </c>
+      <c r="E93" s="20">
+        <v>0</v>
+      </c>
+      <c r="F93" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B94" s="21" t="s">
+      <c r="B94" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="C94" s="21"/>
-      <c r="D94" s="21">
-        <v>0</v>
-      </c>
-      <c r="E94" s="21">
-        <v>0</v>
-      </c>
-      <c r="F94" s="21" t="s">
+      <c r="C94" s="20"/>
+      <c r="D94" s="20">
+        <v>0</v>
+      </c>
+      <c r="E94" s="20">
+        <v>0</v>
+      </c>
+      <c r="F94" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B95" s="21" t="s">
+      <c r="B95" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="C95" s="21"/>
-      <c r="D95" s="21">
-        <v>0</v>
-      </c>
-      <c r="E95" s="21">
-        <v>0</v>
-      </c>
-      <c r="F95" s="21" t="s">
+      <c r="C95" s="20"/>
+      <c r="D95" s="20">
+        <v>0</v>
+      </c>
+      <c r="E95" s="20">
+        <v>0</v>
+      </c>
+      <c r="F95" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B96" s="21" t="s">
+      <c r="B96" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="C96" s="21"/>
-      <c r="D96" s="21">
-        <v>0</v>
-      </c>
-      <c r="E96" s="21">
-        <v>0</v>
-      </c>
-      <c r="F96" s="21" t="s">
+      <c r="C96" s="20"/>
+      <c r="D96" s="20">
+        <v>0</v>
+      </c>
+      <c r="E96" s="20">
+        <v>0</v>
+      </c>
+      <c r="F96" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B97" s="21" t="s">
+      <c r="B97" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="C97" s="21" t="s">
+      <c r="C97" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D97" s="21">
-        <v>0</v>
-      </c>
-      <c r="E97" s="21">
-        <v>0</v>
-      </c>
-      <c r="F97" s="21" t="s">
+      <c r="D97" s="20">
+        <v>0</v>
+      </c>
+      <c r="E97" s="20">
+        <v>0</v>
+      </c>
+      <c r="F97" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B98" s="21" t="s">
+      <c r="B98" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="C98" s="21"/>
-      <c r="D98" s="21">
-        <v>0</v>
-      </c>
-      <c r="E98" s="21">
-        <v>0</v>
-      </c>
-      <c r="F98" s="21" t="s">
+      <c r="C98" s="20"/>
+      <c r="D98" s="20">
+        <v>0</v>
+      </c>
+      <c r="E98" s="20">
+        <v>0</v>
+      </c>
+      <c r="F98" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B99" s="21" t="s">
+      <c r="B99" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C99" s="21" t="s">
+      <c r="C99" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D99" s="21">
-        <v>0</v>
-      </c>
-      <c r="E99" s="21">
-        <v>1</v>
-      </c>
-      <c r="F99" s="21" t="s">
+      <c r="D99" s="20">
+        <v>0</v>
+      </c>
+      <c r="E99" s="20">
+        <v>1</v>
+      </c>
+      <c r="F99" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B100" s="21" t="s">
+      <c r="B100" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="C100" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D100" s="21">
-        <v>0</v>
-      </c>
-      <c r="E100" s="21">
-        <v>0</v>
-      </c>
-      <c r="F100" s="21" t="s">
+      <c r="C100" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D100" s="20">
+        <v>0</v>
+      </c>
+      <c r="E100" s="20">
+        <v>0</v>
+      </c>
+      <c r="F100" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B101" s="21" t="s">
+      <c r="B101" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="C101" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D101" s="21">
-        <v>1</v>
-      </c>
-      <c r="E101" s="21">
-        <v>0</v>
-      </c>
-      <c r="F101" s="21" t="s">
+      <c r="C101" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D101" s="20">
+        <v>1</v>
+      </c>
+      <c r="E101" s="20">
+        <v>0</v>
+      </c>
+      <c r="F101" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B102" s="21" t="s">
+      <c r="B102" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="C102" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D102" s="21">
-        <v>0</v>
-      </c>
-      <c r="E102" s="21">
-        <v>0</v>
-      </c>
-      <c r="F102" s="21" t="s">
+      <c r="C102" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D102" s="20">
+        <v>0</v>
+      </c>
+      <c r="E102" s="20">
+        <v>0</v>
+      </c>
+      <c r="F102" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B103" s="21" t="s">
+      <c r="B103" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="C103" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D103" s="21">
-        <v>0</v>
-      </c>
-      <c r="E103" s="21">
-        <v>0</v>
-      </c>
-      <c r="F103" s="21" t="s">
+      <c r="C103" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D103" s="20">
+        <v>0</v>
+      </c>
+      <c r="E103" s="20">
+        <v>0</v>
+      </c>
+      <c r="F103" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B104" s="21" t="s">
+      <c r="B104" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="C104" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D104" s="21">
-        <v>0</v>
-      </c>
-      <c r="E104" s="21">
-        <v>0</v>
-      </c>
-      <c r="F104" s="21" t="s">
+      <c r="C104" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D104" s="20">
+        <v>0</v>
+      </c>
+      <c r="E104" s="20">
+        <v>0</v>
+      </c>
+      <c r="F104" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B105" s="21" t="s">
+      <c r="B105" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="C105" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D105" s="21">
-        <v>0</v>
-      </c>
-      <c r="E105" s="21">
-        <v>0</v>
-      </c>
-      <c r="F105" s="21" t="s">
+      <c r="C105" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D105" s="20">
+        <v>0</v>
+      </c>
+      <c r="E105" s="20">
+        <v>0</v>
+      </c>
+      <c r="F105" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B106" s="21" t="s">
+      <c r="B106" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="C106" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D106" s="21">
-        <v>0</v>
-      </c>
-      <c r="E106" s="21">
-        <v>0</v>
-      </c>
-      <c r="F106" s="21" t="s">
+      <c r="C106" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D106" s="20">
+        <v>0</v>
+      </c>
+      <c r="E106" s="20">
+        <v>0</v>
+      </c>
+      <c r="F106" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B107" s="21" t="s">
+      <c r="B107" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="C107" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D107" s="21">
-        <v>0</v>
-      </c>
-      <c r="E107" s="21">
-        <v>0</v>
-      </c>
-      <c r="F107" s="21" t="s">
+      <c r="C107" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D107" s="20">
+        <v>0</v>
+      </c>
+      <c r="E107" s="20">
+        <v>0</v>
+      </c>
+      <c r="F107" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B108" s="21" t="s">
+      <c r="B108" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="C108" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D108" s="21">
-        <v>0</v>
-      </c>
-      <c r="E108" s="21">
-        <v>0</v>
-      </c>
-      <c r="F108" s="21" t="s">
+      <c r="C108" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D108" s="20">
+        <v>0</v>
+      </c>
+      <c r="E108" s="20">
+        <v>0</v>
+      </c>
+      <c r="F108" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B109" s="21" t="s">
+      <c r="B109" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="C109" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D109" s="21">
-        <v>0</v>
-      </c>
-      <c r="E109" s="21">
-        <v>0</v>
-      </c>
-      <c r="F109" s="21" t="s">
+      <c r="C109" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D109" s="20">
+        <v>0</v>
+      </c>
+      <c r="E109" s="20">
+        <v>0</v>
+      </c>
+      <c r="F109" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B110" s="21" t="s">
+      <c r="B110" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C110" s="21" t="s">
+      <c r="C110" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="D110" s="21">
-        <v>0</v>
-      </c>
-      <c r="E110" s="21">
-        <v>0</v>
-      </c>
-      <c r="F110" s="21" t="s">
+      <c r="D110" s="20">
+        <v>0</v>
+      </c>
+      <c r="E110" s="20">
+        <v>0</v>
+      </c>
+      <c r="F110" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="111" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B111" s="20" t="s">
+      <c r="B111" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="C111" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D111" s="20">
-        <v>0</v>
-      </c>
-      <c r="E111" s="20">
-        <v>0</v>
-      </c>
-      <c r="F111" s="20" t="s">
+      <c r="C111" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D111" s="19">
+        <v>0</v>
+      </c>
+      <c r="E111" s="19">
+        <v>0</v>
+      </c>
+      <c r="F111" s="19" t="s">
         <v>184</v>
       </c>
     </row>
@@ -2997,432 +3039,432 @@
       </c>
     </row>
     <row r="115" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B115" s="22" t="s">
+      <c r="B115" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C115" s="22" t="s">
+      <c r="C115" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D115" s="22" t="s">
+      <c r="D115" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E115" s="22" t="s">
+      <c r="E115" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="F115" s="22" t="s">
+      <c r="F115" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="G115" s="22" t="s">
+      <c r="G115" s="21" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B116" s="21" t="s">
+      <c r="B116" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="C116" s="21" t="s">
+      <c r="C116" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D116" s="21">
-        <v>1</v>
-      </c>
-      <c r="E116" s="21" t="s">
+      <c r="D116" s="20">
+        <v>1</v>
+      </c>
+      <c r="E116" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="F116" s="21" t="s">
+      <c r="F116" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="G116" s="21">
+      <c r="G116" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B117" s="21" t="s">
+      <c r="B117" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="C117" s="21"/>
-      <c r="D117" s="21">
-        <v>1</v>
-      </c>
-      <c r="E117" s="21" t="s">
+      <c r="C117" s="20"/>
+      <c r="D117" s="20">
+        <v>1</v>
+      </c>
+      <c r="E117" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="F117" s="21" t="s">
+      <c r="F117" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="G117" s="21">
+      <c r="G117" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B118" s="21" t="s">
+      <c r="B118" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="C118" s="21"/>
-      <c r="D118" s="21">
-        <v>0</v>
-      </c>
-      <c r="E118" s="21" t="s">
+      <c r="C118" s="20"/>
+      <c r="D118" s="20">
+        <v>0</v>
+      </c>
+      <c r="E118" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="F118" s="21" t="s">
+      <c r="F118" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="G118" s="21">
+      <c r="G118" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B119" s="21" t="s">
+      <c r="B119" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="C119" s="21"/>
-      <c r="D119" s="21">
-        <v>0</v>
-      </c>
-      <c r="E119" s="21" t="s">
+      <c r="C119" s="20"/>
+      <c r="D119" s="20">
+        <v>0</v>
+      </c>
+      <c r="E119" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="F119" s="21" t="s">
+      <c r="F119" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="G119" s="21">
+      <c r="G119" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B120" s="21" t="s">
+      <c r="B120" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="C120" s="21"/>
-      <c r="D120" s="21">
-        <v>0</v>
-      </c>
-      <c r="E120" s="21" t="s">
+      <c r="C120" s="20"/>
+      <c r="D120" s="20">
+        <v>0</v>
+      </c>
+      <c r="E120" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="F120" s="21" t="s">
+      <c r="F120" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="G120" s="21">
+      <c r="G120" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B121" s="21" t="s">
+      <c r="B121" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="C121" s="21"/>
-      <c r="D121" s="21">
-        <v>1</v>
-      </c>
-      <c r="E121" s="21" t="s">
+      <c r="C121" s="20"/>
+      <c r="D121" s="20">
+        <v>1</v>
+      </c>
+      <c r="E121" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="F121" s="21" t="s">
+      <c r="F121" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="G121" s="21">
+      <c r="G121" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B122" s="21" t="s">
+      <c r="B122" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="C122" s="21"/>
-      <c r="D122" s="21">
-        <v>1</v>
-      </c>
-      <c r="E122" s="21" t="s">
+      <c r="C122" s="20"/>
+      <c r="D122" s="20">
+        <v>1</v>
+      </c>
+      <c r="E122" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="F122" s="21" t="s">
+      <c r="F122" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="G122" s="21">
+      <c r="G122" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B123" s="21" t="s">
+      <c r="B123" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="C123" s="21"/>
-      <c r="D123" s="21">
-        <v>0</v>
-      </c>
-      <c r="E123" s="21" t="s">
+      <c r="C123" s="20"/>
+      <c r="D123" s="20">
+        <v>0</v>
+      </c>
+      <c r="E123" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="F123" s="21" t="s">
+      <c r="F123" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="G123" s="21">
+      <c r="G123" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B124" s="21" t="s">
+      <c r="B124" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="C124" s="21"/>
-      <c r="D124" s="21">
-        <v>1</v>
-      </c>
-      <c r="E124" s="21" t="s">
+      <c r="C124" s="20"/>
+      <c r="D124" s="20">
+        <v>1</v>
+      </c>
+      <c r="E124" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="F124" s="21" t="s">
+      <c r="F124" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="G124" s="21">
+      <c r="G124" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B125" s="21" t="s">
+      <c r="B125" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="C125" s="21"/>
-      <c r="D125" s="21">
-        <v>0</v>
-      </c>
-      <c r="E125" s="21" t="s">
+      <c r="C125" s="20"/>
+      <c r="D125" s="20">
+        <v>0</v>
+      </c>
+      <c r="E125" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="F125" s="21" t="s">
+      <c r="F125" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="G125" s="21">
+      <c r="G125" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B126" s="21" t="s">
+      <c r="B126" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="C126" s="21"/>
-      <c r="D126" s="21">
-        <v>1</v>
-      </c>
-      <c r="E126" s="21" t="s">
+      <c r="C126" s="20"/>
+      <c r="D126" s="20">
+        <v>1</v>
+      </c>
+      <c r="E126" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="F126" s="21" t="s">
+      <c r="F126" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="G126" s="21">
+      <c r="G126" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B127" s="21" t="s">
+      <c r="B127" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="C127" s="21" t="s">
+      <c r="C127" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D127" s="21">
-        <v>1</v>
-      </c>
-      <c r="E127" s="21" t="s">
+      <c r="D127" s="20">
+        <v>1</v>
+      </c>
+      <c r="E127" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="F127" s="21" t="s">
+      <c r="F127" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="G127" s="21">
+      <c r="G127" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B128" s="21" t="s">
+      <c r="B128" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="C128" s="21"/>
-      <c r="D128" s="21">
-        <v>1</v>
-      </c>
-      <c r="E128" s="21" t="s">
+      <c r="C128" s="20"/>
+      <c r="D128" s="20">
+        <v>1</v>
+      </c>
+      <c r="E128" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="F128" s="21" t="s">
+      <c r="F128" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="G128" s="21">
+      <c r="G128" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B129" s="21" t="s">
+      <c r="B129" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="C129" s="21" t="s">
+      <c r="C129" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D129" s="21">
+      <c r="D129" s="20">
         <v>66</v>
       </c>
-      <c r="E129" s="21" t="s">
+      <c r="E129" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="F129" s="21" t="s">
+      <c r="F129" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="G129" s="21">
+      <c r="G129" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B130" s="21" t="s">
+      <c r="B130" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="C130" s="21" t="s">
+      <c r="C130" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D130" s="21">
+      <c r="D130" s="20">
         <v>24</v>
       </c>
-      <c r="E130" s="21" t="s">
+      <c r="E130" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="F130" s="21" t="s">
+      <c r="F130" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="G130" s="21">
+      <c r="G130" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B131" s="21" t="s">
+      <c r="B131" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="C131" s="21" t="s">
+      <c r="C131" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D131" s="21">
+      <c r="D131" s="20">
         <v>18</v>
       </c>
-      <c r="E131" s="21" t="s">
+      <c r="E131" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="F131" s="21" t="s">
+      <c r="F131" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="G131" s="21">
+      <c r="G131" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B132" s="21" t="s">
+      <c r="B132" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="C132" s="21" t="s">
+      <c r="C132" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D132" s="21">
+      <c r="D132" s="20">
         <v>24</v>
       </c>
-      <c r="E132" s="21" t="s">
+      <c r="E132" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="F132" s="21" t="s">
+      <c r="F132" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="G132" s="21">
+      <c r="G132" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B133" s="21" t="s">
+      <c r="B133" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="C133" s="21" t="s">
+      <c r="C133" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D133" s="21">
+      <c r="D133" s="20">
         <v>18</v>
       </c>
-      <c r="E133" s="21" t="s">
+      <c r="E133" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="F133" s="21" t="s">
+      <c r="F133" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="G133" s="21">
+      <c r="G133" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B134" s="21" t="s">
+      <c r="B134" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="C134" s="21" t="s">
+      <c r="C134" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D134" s="21">
+      <c r="D134" s="20">
         <v>6</v>
       </c>
-      <c r="E134" s="21" t="s">
+      <c r="E134" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="F134" s="21" t="s">
+      <c r="F134" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="G134" s="21">
+      <c r="G134" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B135" s="21" t="s">
+      <c r="B135" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="C135" s="21" t="s">
+      <c r="C135" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="D135" s="21">
+      <c r="D135" s="20">
         <v>8</v>
       </c>
-      <c r="E135" s="21" t="s">
+      <c r="E135" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="F135" s="21" t="s">
+      <c r="F135" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="G135" s="21">
+      <c r="G135" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B136" s="21" t="s">
+      <c r="B136" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="C136" s="21" t="s">
+      <c r="C136" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="D136" s="21">
+      <c r="D136" s="20">
         <v>16</v>
       </c>
-      <c r="E136" s="21" t="s">
+      <c r="E136" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="F136" s="21" t="s">
+      <c r="F136" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="G136" s="21">
+      <c r="G136" s="20">
         <v>4</v>
       </c>
     </row>
     <row r="137" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B137" s="20" t="s">
+      <c r="B137" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="C137" s="20"/>
-      <c r="D137" s="20"/>
-      <c r="E137" s="20"/>
-      <c r="F137" s="20"/>
-      <c r="G137" s="20"/>
+      <c r="C137" s="19"/>
+      <c r="D137" s="19"/>
+      <c r="E137" s="19"/>
+      <c r="F137" s="19"/>
+      <c r="G137" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3430,11 +3472,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Z28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:Z35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U33" sqref="U33"/>
+    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3444,28 +3486,28 @@
   <sheetData>
     <row r="2" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="23" t="s">
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="22" t="s">
         <v>14</v>
       </c>
       <c r="P3" s="3"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
       <c r="W3" t="s">
         <v>20</v>
       </c>
@@ -3476,66 +3518,75 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="66">
+      <c r="D4" s="55">
         <f>_xlfn.FLOOR.MATH(D6/$E$21, 1, 1) * $E$21</f>
         <v>6</v>
       </c>
-      <c r="E4" s="49">
-        <f t="shared" ref="E4:P4" si="0">_xlfn.FLOOR.MATH(E6/$E$21, 1, 1) * $E$21</f>
+      <c r="E4" s="55">
+        <f t="shared" ref="E4:S4" si="0">_xlfn.FLOOR.MATH(E6/$E$21, 1, 1) * $E$21</f>
         <v>6</v>
       </c>
-      <c r="F4" s="49">
+      <c r="F4" s="59">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="76">
         <f>_xlfn.FLOOR.MATH(G6/$E$21, 1, 1) * $E$21</f>
-        <v>12</v>
-      </c>
-      <c r="H4" s="62">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="I4" s="49">
-        <f>_xlfn.FLOOR.MATH(I6/$E$21, 1, 1) * $E$21</f>
-        <v>12</v>
-      </c>
-      <c r="J4" s="54">
+        <v>18</v>
+      </c>
+      <c r="H4" s="14">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="K4" s="58">
+      <c r="I4" s="52">
+        <f>_xlfn.FLOOR.MATH(I6/$E$21, 1, 1) * $E$21</f>
+        <v>18</v>
+      </c>
+      <c r="J4" s="76">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="K4" s="81">
         <f>_xlfn.FLOOR.MATH(K6/$E$21, 1, 1) * $E$21</f>
+        <v>24</v>
+      </c>
+      <c r="L4" s="49">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="44">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="M4" s="35">
+      <c r="N4" s="44">
+        <f t="shared" ref="N4" si="1">_xlfn.FLOOR.MATH(N6/$E$21, 1, 1) * $E$21</f>
+        <v>30</v>
+      </c>
+      <c r="O4" s="48">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="P4" s="62">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="Q4" s="62">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="N4" s="35">
-        <f t="shared" ref="N4" si="1">_xlfn.FLOOR.MATH(N6/$E$21, 1, 1) * $E$21</f>
-        <v>30</v>
-      </c>
-      <c r="O4" s="41">
+      <c r="R4" s="62">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="P4" s="69">
+        <v>36</v>
+      </c>
+      <c r="S4" s="62">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
+        <v>48</v>
+      </c>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
       <c r="W4">
         <f>SUM(Z8:Z14)-SUM(X8:X14)</f>
-        <v>-140</v>
+        <v>26</v>
       </c>
       <c r="X4" t="s">
         <v>21</v>
@@ -3550,730 +3601,802 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="66">
+      <c r="D5" s="55">
         <f>_xlfn.FLOOR.MATH(D6/$E$27, 1, 1) * $E$27</f>
         <v>8</v>
       </c>
-      <c r="E5" s="49">
-        <f t="shared" ref="E5:P5" si="2">_xlfn.FLOOR.MATH(E6/$E$27, 1, 1) * $E$27</f>
+      <c r="E5" s="55">
+        <f t="shared" ref="E5:S5" si="2">_xlfn.FLOOR.MATH(E6/$E$27, 1, 1) * $E$27</f>
         <v>8</v>
       </c>
-      <c r="F5" s="49">
+      <c r="F5" s="59">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="G5" s="15">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="H5" s="62">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="I5" s="49">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="J5" s="54">
+      <c r="G5" s="76">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="K5" s="58">
+      <c r="H5" s="14">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="L5" s="1">
+      <c r="I5" s="52">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="J5" s="76">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="M5" s="35">
+      <c r="K5" s="81">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="N5" s="35">
+      <c r="L5" s="49">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="M5" s="44">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="O5" s="41">
+      <c r="N5" s="44">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="O5" s="48">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="P5" s="69">
+      <c r="P5" s="62">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
+      <c r="Q5" s="62">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="R5" s="62">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="S5" s="62">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
     </row>
     <row r="6" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="66">
+      <c r="D6" s="55">
         <v>10</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="56">
         <v>10</v>
       </c>
-      <c r="F6" s="50">
+      <c r="F6" s="85">
         <v>10</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="77">
+        <v>20</v>
+      </c>
+      <c r="H6" s="15">
+        <v>20</v>
+      </c>
+      <c r="I6" s="53">
+        <v>20</v>
+      </c>
+      <c r="J6" s="77">
+        <v>25</v>
+      </c>
+      <c r="K6" s="82">
+        <v>25</v>
+      </c>
+      <c r="L6" s="50">
+        <v>20</v>
+      </c>
+      <c r="M6" s="45">
+        <v>30</v>
+      </c>
+      <c r="N6" s="45">
+        <v>30</v>
+      </c>
+      <c r="O6" s="48">
+        <v>20</v>
+      </c>
+      <c r="P6" s="62">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="46">
+        <v>30</v>
+      </c>
+      <c r="R6" s="46">
+        <v>40</v>
+      </c>
+      <c r="S6" s="61">
+        <v>50</v>
+      </c>
+      <c r="T6" s="31"/>
+      <c r="U6" s="32"/>
+    </row>
+    <row r="7" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="84">
+        <v>1</v>
+      </c>
+      <c r="E7" s="57">
+        <v>2</v>
+      </c>
+      <c r="F7" s="60">
+        <v>3</v>
+      </c>
+      <c r="G7" s="78">
+        <v>4</v>
+      </c>
+      <c r="H7" s="42">
+        <v>5</v>
+      </c>
+      <c r="I7" s="54">
+        <v>6</v>
+      </c>
+      <c r="J7" s="78">
+        <v>7</v>
+      </c>
+      <c r="K7" s="83">
+        <v>8</v>
+      </c>
+      <c r="L7" s="51">
+        <v>9</v>
+      </c>
+      <c r="M7" s="46">
+        <v>10</v>
+      </c>
+      <c r="N7" s="46">
+        <v>11</v>
+      </c>
+      <c r="O7" s="48">
+        <v>12</v>
+      </c>
+      <c r="P7" s="62">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="62">
+        <v>14</v>
+      </c>
+      <c r="R7" s="62">
         <v>15</v>
       </c>
-      <c r="H6" s="63">
-        <v>15</v>
-      </c>
-      <c r="I6" s="16">
-        <v>15</v>
-      </c>
-      <c r="J6" s="55">
-        <v>20</v>
-      </c>
-      <c r="K6" s="59">
-        <v>20</v>
-      </c>
-      <c r="L6" s="16">
-        <v>30</v>
-      </c>
-      <c r="M6" s="36">
-        <v>30</v>
-      </c>
-      <c r="N6" s="36">
-        <v>30</v>
-      </c>
-      <c r="O6" s="41">
-        <v>20</v>
-      </c>
-      <c r="P6" s="70">
-        <v>25</v>
-      </c>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="33"/>
-    </row>
-    <row r="7" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="77" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="71">
-        <v>1</v>
-      </c>
-      <c r="E7" s="51">
-        <v>2</v>
-      </c>
-      <c r="F7" s="51">
-        <v>3</v>
-      </c>
-      <c r="G7" s="47">
-        <v>4</v>
-      </c>
-      <c r="H7" s="64">
-        <v>5</v>
-      </c>
-      <c r="I7" s="51">
-        <v>6</v>
-      </c>
-      <c r="J7" s="56">
-        <v>7</v>
-      </c>
-      <c r="K7" s="60">
-        <v>8</v>
-      </c>
-      <c r="L7" s="4">
-        <v>9</v>
-      </c>
-      <c r="M7" s="37">
-        <v>10</v>
-      </c>
-      <c r="N7" s="37">
-        <v>11</v>
-      </c>
-      <c r="O7" s="74">
-        <v>12</v>
-      </c>
-      <c r="P7" s="68">
-        <v>13</v>
-      </c>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="83" t="s">
+      <c r="S7" s="62">
+        <v>16</v>
+      </c>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="84"/>
-      <c r="X7" s="85"/>
+      <c r="W7" s="72"/>
+      <c r="X7" s="73"/>
       <c r="Z7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="78"/>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="67">
-        <v>0</v>
-      </c>
-      <c r="E8" s="51">
-        <v>0</v>
-      </c>
-      <c r="F8" s="51">
-        <v>0</v>
-      </c>
-      <c r="G8" s="47">
-        <v>0</v>
-      </c>
-      <c r="H8" s="64">
-        <v>0</v>
-      </c>
-      <c r="I8" s="51">
-        <v>0</v>
-      </c>
-      <c r="J8" s="56">
-        <v>0</v>
-      </c>
-      <c r="K8" s="60">
-        <v>0</v>
-      </c>
-      <c r="L8" s="4">
-        <v>0</v>
-      </c>
-      <c r="M8" s="37">
-        <v>0</v>
-      </c>
-      <c r="N8" s="37">
-        <v>0</v>
-      </c>
-      <c r="O8" s="75">
-        <v>0</v>
-      </c>
-      <c r="P8" s="76">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="9">
+      <c r="B8" s="66"/>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="57">
+        <v>0</v>
+      </c>
+      <c r="E8" s="57">
+        <v>0</v>
+      </c>
+      <c r="F8" s="60">
+        <v>0</v>
+      </c>
+      <c r="G8" s="78">
+        <v>1</v>
+      </c>
+      <c r="H8" s="42">
+        <v>0</v>
+      </c>
+      <c r="I8" s="54">
+        <v>0</v>
+      </c>
+      <c r="J8" s="78">
+        <v>1</v>
+      </c>
+      <c r="K8" s="83">
+        <v>0</v>
+      </c>
+      <c r="L8" s="51">
+        <v>0</v>
+      </c>
+      <c r="M8" s="46">
+        <v>0</v>
+      </c>
+      <c r="N8" s="46">
+        <v>0</v>
+      </c>
+      <c r="O8" s="74">
+        <v>0</v>
+      </c>
+      <c r="P8" s="64">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="64">
+        <v>0</v>
+      </c>
+      <c r="R8" s="64">
+        <v>0</v>
+      </c>
+      <c r="S8" s="64">
+        <v>0</v>
+      </c>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="8">
         <f>SUMPRODUCT(D8:S8,$D$4:$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="W8" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="W8" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="X8" s="17">
+      <c r="X8" s="16">
         <f t="shared" ref="X8:X14" si="3">F21</f>
-        <v>54</v>
-      </c>
-      <c r="Z8" s="8">
+        <v>42</v>
+      </c>
+      <c r="Z8" s="7">
         <f>SUMPRODUCT(D8:S8,$D$6:$S$6)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="78"/>
-      <c r="C9" s="6">
+      <c r="B9" s="66"/>
+      <c r="C9" s="5">
         <v>2</v>
       </c>
-      <c r="D9" s="46">
-        <v>0</v>
-      </c>
-      <c r="E9" s="52">
-        <v>0</v>
-      </c>
-      <c r="F9" s="52">
-        <v>0</v>
-      </c>
-      <c r="G9" s="42">
-        <v>0</v>
-      </c>
-      <c r="H9" s="45">
-        <v>0</v>
-      </c>
-      <c r="I9" s="52">
-        <v>0</v>
-      </c>
-      <c r="J9" s="44">
-        <v>0</v>
-      </c>
-      <c r="K9" s="43">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9" s="38">
-        <v>0</v>
-      </c>
-      <c r="N9" s="38">
-        <v>0</v>
-      </c>
-      <c r="O9" s="75">
-        <v>0</v>
-      </c>
-      <c r="P9" s="76">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="32"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="32"/>
-      <c r="V9" s="9">
+      <c r="D9" s="40">
+        <v>0</v>
+      </c>
+      <c r="E9" s="40">
+        <v>0</v>
+      </c>
+      <c r="F9" s="41">
+        <v>0</v>
+      </c>
+      <c r="G9" s="79">
+        <v>0</v>
+      </c>
+      <c r="H9" s="37">
+        <v>0</v>
+      </c>
+      <c r="I9" s="38">
+        <v>0</v>
+      </c>
+      <c r="J9" s="79">
+        <v>0</v>
+      </c>
+      <c r="K9" s="35">
+        <v>1</v>
+      </c>
+      <c r="L9" s="39">
+        <v>0</v>
+      </c>
+      <c r="M9" s="47">
+        <v>0</v>
+      </c>
+      <c r="N9" s="47">
+        <v>0</v>
+      </c>
+      <c r="O9" s="74">
+        <v>0</v>
+      </c>
+      <c r="P9" s="64">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="64">
+        <v>0</v>
+      </c>
+      <c r="R9" s="64">
+        <v>0</v>
+      </c>
+      <c r="S9" s="64">
+        <v>0</v>
+      </c>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="8">
         <f t="shared" ref="V9:V14" si="4">SUMPRODUCT(D9:S9,$D$4:$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="W9" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="W9" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="X9" s="17">
+      <c r="X9" s="16">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="Z9" s="7">
+        <f t="shared" ref="Z9:Z14" si="5">SUMPRODUCT(D9:S9,$D$6:$S$6)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="66"/>
+      <c r="C10" s="5">
+        <v>3</v>
+      </c>
+      <c r="D10" s="40">
+        <v>0</v>
+      </c>
+      <c r="E10" s="40">
+        <v>0</v>
+      </c>
+      <c r="F10" s="41">
+        <v>0</v>
+      </c>
+      <c r="G10" s="79">
+        <v>0</v>
+      </c>
+      <c r="H10" s="37">
+        <v>1</v>
+      </c>
+      <c r="I10" s="38">
+        <v>0</v>
+      </c>
+      <c r="J10" s="79">
+        <v>0</v>
+      </c>
+      <c r="K10" s="35">
+        <v>0</v>
+      </c>
+      <c r="L10" s="39">
+        <v>0</v>
+      </c>
+      <c r="M10" s="47">
+        <v>0</v>
+      </c>
+      <c r="N10" s="47">
+        <v>0</v>
+      </c>
+      <c r="O10" s="74">
+        <v>0</v>
+      </c>
+      <c r="P10" s="64">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="64">
+        <v>0</v>
+      </c>
+      <c r="R10" s="64">
+        <v>0</v>
+      </c>
+      <c r="S10" s="64">
+        <v>0</v>
+      </c>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="8">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="W10" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="X10" s="16">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="Z10" s="7">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="66"/>
+      <c r="C11" s="5">
+        <v>4</v>
+      </c>
+      <c r="D11" s="40">
+        <v>0</v>
+      </c>
+      <c r="E11" s="40">
+        <v>0</v>
+      </c>
+      <c r="F11" s="41">
+        <v>0</v>
+      </c>
+      <c r="G11" s="79">
+        <v>0</v>
+      </c>
+      <c r="H11" s="37">
+        <v>0</v>
+      </c>
+      <c r="I11" s="38">
+        <v>1</v>
+      </c>
+      <c r="J11" s="79">
+        <v>0</v>
+      </c>
+      <c r="K11" s="35">
+        <v>0</v>
+      </c>
+      <c r="L11" s="39">
+        <v>0</v>
+      </c>
+      <c r="M11" s="47">
+        <v>0</v>
+      </c>
+      <c r="N11" s="47">
+        <v>0</v>
+      </c>
+      <c r="O11" s="74">
+        <v>0</v>
+      </c>
+      <c r="P11" s="64">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="64">
+        <v>0</v>
+      </c>
+      <c r="R11" s="64">
+        <v>0</v>
+      </c>
+      <c r="S11" s="64">
+        <v>0</v>
+      </c>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="8">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="W11" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="X11" s="16">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="Z9" s="8">
-        <f t="shared" ref="Z9:Z14" si="5">SUMPRODUCT(D9:S9,$D$6:$S$6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="78"/>
-      <c r="C10" s="6">
-        <v>3</v>
-      </c>
-      <c r="D10" s="46">
-        <v>0</v>
-      </c>
-      <c r="E10" s="52">
-        <v>0</v>
-      </c>
-      <c r="F10" s="52">
-        <v>0</v>
-      </c>
-      <c r="G10" s="42">
-        <v>0</v>
-      </c>
-      <c r="H10" s="45">
-        <v>0</v>
-      </c>
-      <c r="I10" s="52">
-        <v>0</v>
-      </c>
-      <c r="J10" s="44">
-        <v>0</v>
-      </c>
-      <c r="K10" s="43">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10" s="38">
-        <v>0</v>
-      </c>
-      <c r="N10" s="38">
-        <v>0</v>
-      </c>
-      <c r="O10" s="75">
-        <v>0</v>
-      </c>
-      <c r="P10" s="76">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="32"/>
-      <c r="T10" s="32"/>
-      <c r="U10" s="32"/>
-      <c r="V10" s="9">
+      <c r="Z11" s="7">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="66"/>
+      <c r="C12" s="5">
+        <v>5</v>
+      </c>
+      <c r="D12" s="40">
+        <v>0</v>
+      </c>
+      <c r="E12" s="40">
+        <v>0</v>
+      </c>
+      <c r="F12" s="41">
+        <v>0</v>
+      </c>
+      <c r="G12" s="79">
+        <v>0</v>
+      </c>
+      <c r="H12" s="37">
+        <v>0</v>
+      </c>
+      <c r="I12" s="38">
+        <v>0</v>
+      </c>
+      <c r="J12" s="79">
+        <v>0</v>
+      </c>
+      <c r="K12" s="35">
+        <v>0</v>
+      </c>
+      <c r="L12" s="39">
+        <v>1</v>
+      </c>
+      <c r="M12" s="47">
+        <v>0</v>
+      </c>
+      <c r="N12" s="47">
+        <v>0</v>
+      </c>
+      <c r="O12" s="74">
+        <v>0</v>
+      </c>
+      <c r="P12" s="64">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="64">
+        <v>0</v>
+      </c>
+      <c r="R12" s="64">
+        <v>0</v>
+      </c>
+      <c r="S12" s="64">
+        <v>0</v>
+      </c>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W10" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="W12" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="X10" s="17">
+      <c r="X12" s="16">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="Z12" s="7">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="66"/>
+      <c r="C13" s="5">
+        <v>6</v>
+      </c>
+      <c r="D13" s="40">
+        <v>1</v>
+      </c>
+      <c r="E13" s="40">
+        <v>1</v>
+      </c>
+      <c r="F13" s="41">
+        <v>0</v>
+      </c>
+      <c r="G13" s="79">
+        <v>0</v>
+      </c>
+      <c r="H13" s="37">
+        <v>0</v>
+      </c>
+      <c r="I13" s="38">
+        <v>0</v>
+      </c>
+      <c r="J13" s="79">
+        <v>0</v>
+      </c>
+      <c r="K13" s="35">
+        <v>0</v>
+      </c>
+      <c r="L13" s="39">
+        <v>0</v>
+      </c>
+      <c r="M13" s="47">
+        <v>0</v>
+      </c>
+      <c r="N13" s="47">
+        <v>0</v>
+      </c>
+      <c r="O13" s="74">
+        <v>0</v>
+      </c>
+      <c r="P13" s="64">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="64">
+        <v>0</v>
+      </c>
+      <c r="R13" s="64">
+        <v>0</v>
+      </c>
+      <c r="S13" s="64">
+        <v>0</v>
+      </c>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="8">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="W13" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="X13" s="16">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="Z10" s="8">
+      <c r="Z13" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="78"/>
-      <c r="C11" s="6">
-        <v>4</v>
-      </c>
-      <c r="D11" s="46">
-        <v>0</v>
-      </c>
-      <c r="E11" s="52">
-        <v>0</v>
-      </c>
-      <c r="F11" s="52">
-        <v>0</v>
-      </c>
-      <c r="G11" s="42">
-        <v>0</v>
-      </c>
-      <c r="H11" s="45">
-        <v>0</v>
-      </c>
-      <c r="I11" s="52">
-        <v>0</v>
-      </c>
-      <c r="J11" s="44">
-        <v>0</v>
-      </c>
-      <c r="K11" s="43">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11" s="38">
-        <v>0</v>
-      </c>
-      <c r="N11" s="38">
-        <v>0</v>
-      </c>
-      <c r="O11" s="75">
-        <v>0</v>
-      </c>
-      <c r="P11" s="76">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="66"/>
+      <c r="C14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="40">
+        <v>0</v>
+      </c>
+      <c r="E14" s="40">
+        <v>0</v>
+      </c>
+      <c r="F14" s="41">
+        <v>1</v>
+      </c>
+      <c r="G14" s="79">
+        <v>0</v>
+      </c>
+      <c r="H14" s="37">
+        <v>0</v>
+      </c>
+      <c r="I14" s="38">
+        <v>0</v>
+      </c>
+      <c r="J14" s="79">
+        <v>0</v>
+      </c>
+      <c r="K14" s="35">
+        <v>0</v>
+      </c>
+      <c r="L14" s="39">
+        <v>0</v>
+      </c>
+      <c r="M14" s="47">
+        <v>0</v>
+      </c>
+      <c r="N14" s="47">
+        <v>0</v>
+      </c>
+      <c r="O14" s="74">
+        <v>0</v>
+      </c>
+      <c r="P14" s="64">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="64">
+        <v>0</v>
+      </c>
+      <c r="R14" s="64">
+        <v>0</v>
+      </c>
+      <c r="S14" s="64">
+        <v>0</v>
+      </c>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W11" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="W14" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="X11" s="17">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="Z11" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="78"/>
-      <c r="C12" s="6">
-        <v>5</v>
-      </c>
-      <c r="D12" s="46">
-        <v>0</v>
-      </c>
-      <c r="E12" s="52">
-        <v>0</v>
-      </c>
-      <c r="F12" s="52">
-        <v>0</v>
-      </c>
-      <c r="G12" s="42">
-        <v>0</v>
-      </c>
-      <c r="H12" s="45">
-        <v>0</v>
-      </c>
-      <c r="I12" s="52">
-        <v>0</v>
-      </c>
-      <c r="J12" s="44">
-        <v>0</v>
-      </c>
-      <c r="K12" s="43">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12" s="38">
-        <v>0</v>
-      </c>
-      <c r="N12" s="38">
-        <v>0</v>
-      </c>
-      <c r="O12" s="75">
-        <v>0</v>
-      </c>
-      <c r="P12" s="76">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="32"/>
-      <c r="V12" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W12" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="X12" s="17">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="Z12" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="78"/>
-      <c r="C13" s="6">
-        <v>6</v>
-      </c>
-      <c r="D13" s="46">
-        <v>0</v>
-      </c>
-      <c r="E13" s="52">
-        <v>0</v>
-      </c>
-      <c r="F13" s="52">
-        <v>0</v>
-      </c>
-      <c r="G13" s="42">
-        <v>0</v>
-      </c>
-      <c r="H13" s="45">
-        <v>0</v>
-      </c>
-      <c r="I13" s="52">
-        <v>0</v>
-      </c>
-      <c r="J13" s="44">
-        <v>0</v>
-      </c>
-      <c r="K13" s="43">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13" s="38">
-        <v>0</v>
-      </c>
-      <c r="N13" s="38">
-        <v>0</v>
-      </c>
-      <c r="O13" s="75">
-        <v>0</v>
-      </c>
-      <c r="P13" s="76">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="32"/>
-      <c r="S13" s="32"/>
-      <c r="T13" s="32"/>
-      <c r="U13" s="32"/>
-      <c r="V13" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W13" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="X13" s="17">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="Z13" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="78"/>
-      <c r="C14" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="46">
-        <v>0</v>
-      </c>
-      <c r="E14" s="52">
-        <v>0</v>
-      </c>
-      <c r="F14" s="52">
-        <v>0</v>
-      </c>
-      <c r="G14" s="42">
-        <v>0</v>
-      </c>
-      <c r="H14" s="45">
-        <v>0</v>
-      </c>
-      <c r="I14" s="52">
-        <v>0</v>
-      </c>
-      <c r="J14" s="44">
-        <v>0</v>
-      </c>
-      <c r="K14" s="43">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14" s="38">
-        <v>0</v>
-      </c>
-      <c r="N14" s="38">
-        <v>0</v>
-      </c>
-      <c r="O14" s="75">
-        <v>0</v>
-      </c>
-      <c r="P14" s="76">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="32"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="32"/>
-      <c r="V14" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W14" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="X14" s="18">
+      <c r="X14" s="17">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="Z14" s="8">
+      <c r="Z14" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="79"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="66">
+      <c r="B15" s="67"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="55">
         <f>SUM(D8:D14)</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="53">
-        <f t="shared" ref="E15:P15" si="6">SUM(E8:E14)</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="50">
+        <v>1</v>
+      </c>
+      <c r="E15" s="58">
+        <f t="shared" ref="E15:S15" si="6">SUM(E8:E14)</f>
+        <v>1</v>
+      </c>
+      <c r="F15" s="85">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="48">
+        <v>1</v>
+      </c>
+      <c r="G15" s="80">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="65">
+        <v>1</v>
+      </c>
+      <c r="H15" s="43">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="50">
+        <v>1</v>
+      </c>
+      <c r="I15" s="53">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="57">
+        <v>1</v>
+      </c>
+      <c r="J15" s="80">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="61">
+        <v>1</v>
+      </c>
+      <c r="K15" s="36">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="2">
+        <v>1</v>
+      </c>
+      <c r="L15" s="50">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="39">
+        <v>1</v>
+      </c>
+      <c r="M15" s="48">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N15" s="35">
+      <c r="N15" s="44">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O15" s="41">
+      <c r="O15" s="48">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P15" s="69">
+      <c r="P15" s="62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
+      <c r="Q15" s="62">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="62">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="62">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
     </row>
     <row r="16" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O17" s="26">
+      <c r="O17" s="25">
         <f>SUM(Z8:Z14)</f>
-        <v>0</v>
-      </c>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
+        <v>160</v>
+      </c>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
     </row>
     <row r="18" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="K18" s="25"/>
+      <c r="K18" s="24"/>
     </row>
     <row r="19" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="3:21" ht="90.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="S20" s="28"/>
+      <c r="S20" s="27"/>
     </row>
     <row r="21" spans="3:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="29">
-        <v>9</v>
-      </c>
-      <c r="E21" s="80">
+      <c r="D21" s="28">
+        <v>7</v>
+      </c>
+      <c r="E21" s="68">
         <v>6</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="13">
         <f>$E$21*D21</f>
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I21" t="s">
         <v>189</v>
@@ -4301,40 +4424,40 @@
       </c>
     </row>
     <row r="22" spans="3:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="30">
-        <v>3</v>
-      </c>
-      <c r="E22" s="81"/>
-      <c r="F22" s="14">
+      <c r="D22" s="29">
+        <v>4</v>
+      </c>
+      <c r="E22" s="69"/>
+      <c r="F22" s="13">
         <f t="shared" ref="F22:F26" si="7">$E$21*D22</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I22">
-        <v>10.11</v>
-      </c>
-      <c r="J22" s="38">
+        <v>4.7</v>
+      </c>
+      <c r="J22" s="34">
         <f>X8</f>
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="M22">
-        <f>N6+M6</f>
-        <v>60</v>
+        <f>Z8</f>
+        <v>45</v>
       </c>
       <c r="O22">
         <f t="shared" ref="O22:O28" si="8">M22-X8</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R22">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="S22">
         <v>1</v>
       </c>
-      <c r="T22" s="73">
-        <v>9</v>
+      <c r="T22" s="28">
+        <v>7</v>
       </c>
       <c r="U22">
         <f>R22-T22</f>
@@ -4342,108 +4465,108 @@
       </c>
     </row>
     <row r="23" spans="3:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="30">
+      <c r="D23" s="29">
         <v>2</v>
       </c>
-      <c r="E23" s="81"/>
-      <c r="F23" s="14">
+      <c r="E23" s="69"/>
+      <c r="F23" s="13">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="I23">
-        <v>12</v>
-      </c>
-      <c r="J23" s="40">
-        <f t="shared" ref="J23:J28" si="9">X9</f>
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="J23" s="35">
+        <f>X9</f>
+        <v>24</v>
       </c>
       <c r="M23">
-        <f>SUM(D6:E6)</f>
-        <v>20</v>
+        <f t="shared" ref="M23:M28" si="9">Z9</f>
+        <v>25</v>
       </c>
       <c r="O23">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R23">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S23">
         <v>2</v>
       </c>
-      <c r="T23" s="73">
-        <v>3</v>
+      <c r="T23" s="29">
+        <v>4</v>
       </c>
       <c r="U23">
         <f t="shared" ref="U23:U27" si="10">R23-T23</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="29">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="30">
-        <v>3</v>
-      </c>
-      <c r="E24" s="81"/>
-      <c r="F24" s="14">
+      <c r="E24" s="69"/>
+      <c r="F24" s="13">
         <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="I24">
-        <v>4</v>
-      </c>
-      <c r="J24" s="42">
+        <v>5</v>
+      </c>
+      <c r="J24" s="37">
+        <f t="shared" ref="J23:J28" si="11">X10</f>
+        <v>12</v>
+      </c>
+      <c r="M24">
         <f t="shared" si="9"/>
-        <v>12</v>
-      </c>
-      <c r="M24">
-        <f>G6</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O24">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S24">
         <v>3</v>
       </c>
-      <c r="T24" s="73">
+      <c r="T24" s="29">
         <v>2</v>
       </c>
       <c r="U24">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="3:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="30">
+      <c r="D25" s="29">
         <v>3</v>
       </c>
-      <c r="E25" s="81"/>
-      <c r="F25" s="14">
+      <c r="E25" s="69"/>
+      <c r="F25" s="13">
         <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="I25">
-        <v>7</v>
-      </c>
-      <c r="J25" s="43">
+        <v>6</v>
+      </c>
+      <c r="J25" s="38">
+        <f t="shared" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="M25">
         <f t="shared" si="9"/>
-        <v>18</v>
-      </c>
-      <c r="M25">
-        <f>K6</f>
         <v>20</v>
       </c>
       <c r="O25">
@@ -4451,40 +4574,40 @@
         <v>2</v>
       </c>
       <c r="R25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S25">
         <v>3</v>
       </c>
-      <c r="T25" s="73">
+      <c r="T25" s="29">
         <v>3</v>
       </c>
       <c r="U25">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="3:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="30">
+      <c r="D26" s="29">
         <v>2</v>
       </c>
-      <c r="E26" s="82"/>
-      <c r="F26" s="14">
+      <c r="E26" s="70"/>
+      <c r="F26" s="13">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="I26">
-        <v>8</v>
-      </c>
-      <c r="J26" s="44">
+        <v>9</v>
+      </c>
+      <c r="J26" s="39">
+        <f t="shared" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="M26">
         <f t="shared" si="9"/>
-        <v>18</v>
-      </c>
-      <c r="M26">
-        <f>J6</f>
         <v>20</v>
       </c>
       <c r="O26">
@@ -4497,7 +4620,7 @@
       <c r="S26">
         <v>3</v>
       </c>
-      <c r="T26" s="73">
+      <c r="T26" s="29">
         <v>3</v>
       </c>
       <c r="U26">
@@ -4505,34 +4628,34 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="3:21" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="31">
-        <v>1</v>
-      </c>
-      <c r="E27" s="14">
+    <row r="27" spans="3:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="30">
+        <v>1</v>
+      </c>
+      <c r="E27" s="13">
         <v>8</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="13">
         <f>D27*E27</f>
         <v>8</v>
       </c>
       <c r="I27">
-        <v>5</v>
-      </c>
-      <c r="J27" s="45">
+        <v>1.2</v>
+      </c>
+      <c r="J27" s="40">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="M27">
         <f t="shared" si="9"/>
-        <v>12</v>
-      </c>
-      <c r="M27">
-        <f>H6</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O27">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R27">
         <v>3</v>
@@ -4540,7 +4663,7 @@
       <c r="S27">
         <v>2</v>
       </c>
-      <c r="T27" s="73">
+      <c r="T27" s="29">
         <v>2</v>
       </c>
       <c r="U27">
@@ -4550,21 +4673,34 @@
     </row>
     <row r="28" spans="3:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28" s="46">
+        <v>3</v>
+      </c>
+      <c r="J28" s="41">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="M28">
         <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="M28">
-        <f>F6</f>
         <v>10</v>
       </c>
       <c r="O28">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="T28" s="72"/>
+      <c r="T28" s="63"/>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="M30">
+        <f>SUM(M22:M28)</f>
+        <v>160</v>
+      </c>
+      <c r="O30">
+        <f>SUM(O22:O28)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="21:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="U35" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4574,7 +4710,7 @@
     <mergeCell ref="V7:X7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>